--- a/data/reference_tables.xlsx
+++ b/data/reference_tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fletchls\Documents\Met Council Locals\covid-poops\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4F728F-A4C2-4F8A-897A-F65993DDECA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9F9D57-7700-46BE-9952-AC158E2BF287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E164A18-D850-485D-AADB-E4EAF3DB268E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="105">
   <si>
     <t>Metro</t>
   </si>
@@ -703,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435EDC40-DE02-4DD2-9BC5-561481E6617A}">
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.40294304196157155</v>
+        <v>0.80690904295126398</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.8307087596635698E-4</v>
+        <v>2.0657836916035302E-4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1870136001294381</v>
+        <v>0.68300836836244605</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1370603232827402</v>
+        <v>0.64845008032054163</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -778,122 +778,122 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.1392042532684886E-2</v>
+        <v>0.11246624512447437</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.4903116220498295E-7</v>
+        <v>0.82285523333976851</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.54524536098138032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1.3760850582636651E-7</v>
+        <v>0.93133265375161822</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.19772006622796351</v>
+        <v>0.9985351925470336</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.84138701354296974</v>
+        <v>0.95510014305665158</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.70070431181443882</v>
+        <v>0.4381244334672732</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.21348445675781039</v>
+        <v>1.8480610716497189E-4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.0300236676857973E-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0.99786110509063386</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.91539356005146644</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -904,1003 +904,937 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.98652115009433317</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.97531893382259871</v>
+        <v>0.99999995341855674</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.96199188966797811</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.9990603690925296</v>
+        <v>0.99470540225909665</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.98598438146151035</v>
+        <v>0.99125719373896359</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.92168798323615997</v>
+        <v>0.87664163532334782</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.46315268755461014</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.73708071365877981</v>
+        <v>0.99770745971479591</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>0.88192548640189872</v>
+        <v>0.9790674783527169</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0.92863572683283935</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0.85672518358181737</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0.37826382159845839</v>
+        <v>0.99818420701167554</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>0.73509819820205446</v>
+        <v>0.99471157949911515</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>0.97156338343288917</v>
+        <v>0.97815353013178785</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>0.79961019583042126</v>
+        <v>0.98105872736174793</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>0.75553108115148648</v>
+        <v>0.99912933156607353</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0.76089314029187249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>9.9902130779515996E-3</v>
+        <v>0.496098219088216</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0.49256925334658175</v>
+        <v>0.9712814555115854</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>0.72776377927780911</v>
+        <v>0.74640344450840923</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>0.41621181685131359</v>
+        <v>0.97477957976422813</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>0.88641411567378914</v>
+        <v>1.0194407776914946E-2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>1.562091726259522E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0.62035414930243871</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>0.18708811556502153</v>
+        <v>0.43941352167950665</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>2.7255251676967987E-8</v>
+        <v>5.649134606546078E-2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>0.1269269110129726</v>
+        <v>0.93704368162636131</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>5.3291070157896893E-2</v>
+        <v>0.91313282883340852</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>0.69626488751700932</v>
+        <v>0.41672777306410269</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>0.75762934089371892</v>
+        <v>0.54221863493227584</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>2.0326135539210452E-7</v>
+        <v>0.69404548412646927</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>5.0729288512588337E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>9.3147626237363917E-2</v>
+        <v>0.90672180134549063</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>0.1464314824855045</v>
+        <v>1.6166042136791102E-3</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>0.43902684287887506</v>
+        <v>1.8482941545737036E-3</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>7.8011908691515131E-4</v>
+        <v>0.99996424284484398</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>0.54289406238866855</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>4.7590448492600117E-3</v>
+        <v>0.99987170990678775</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>4.5196643858676534E-3</v>
+        <v>0.99999120525060947</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>0.99993933211448305</v>
+        <v>0.99021991836788148</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>0.99995884165557147</v>
+        <v>0.99783593423030292</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>0.99991445941401547</v>
+        <v>0.99995345979829975</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>0</v>
       </c>
       <c r="C60">
-        <v>0.99998727002389654</v>
+        <v>0.98099224536397978</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>0.90998145715665724</v>
+        <v>0.99852202902758236</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>0.93456935656200035</v>
+        <v>0.99339769132180666</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>0.99996603426522024</v>
+        <v>0.99959716790481012</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>0.92173932713325168</v>
+        <v>0.9982941299254996</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>0.87324272147268356</v>
+        <v>0.99998725067527938</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>0.94201880286268336</v>
+        <v>0.99842692330646643</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>0.99425188931769037</v>
+        <v>0.99989884814829399</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>0.96077106020458924</v>
+        <v>0.99891635336561335</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>0.99989241208713808</v>
+        <v>0.99885730256061567</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>0.98744649052532296</v>
+        <v>0.99761032624984158</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>0</v>
       </c>
       <c r="C71">
-        <v>0.98318715158213521</v>
+        <v>0.99974704608407383</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>0</v>
       </c>
       <c r="C72">
-        <v>0.99357593944017109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>0</v>
       </c>
       <c r="C73">
-        <v>0.96810299895350527</v>
+        <v>0.99266600307348296</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>0.93003767058991571</v>
+        <v>0.98895414348505206</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>0</v>
       </c>
       <c r="C75">
-        <v>0.99750882905144489</v>
+        <v>0.98917608024410641</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>1.395045812086567E-3</v>
+        <v>0.99549644967944384</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>0</v>
       </c>
       <c r="C77">
-        <v>0.91729589479960405</v>
+        <v>2.1616815930925225E-5</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>0</v>
       </c>
       <c r="C78">
-        <v>0.90872608460600135</v>
+        <v>0.99956603632393437</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>0</v>
       </c>
       <c r="C79">
-        <v>0.95533759493532133</v>
+        <v>0.99154465429704142</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>0</v>
       </c>
       <c r="C80">
-        <v>0.9895813982984607</v>
+        <v>0.9999680091524038</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>0</v>
       </c>
       <c r="C81">
-        <v>4.5060272835240238E-3</v>
+        <v>0.99834827503163659</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>0</v>
       </c>
       <c r="C82">
-        <v>0.99793390855066444</v>
+        <v>0.98872265286614036</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>0</v>
       </c>
       <c r="C83">
-        <v>0.99052037721126629</v>
+        <v>3.1121681567145203E-6</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>0</v>
       </c>
       <c r="C84">
-        <v>0.9890806424751436</v>
+        <v>0.99372893283905273</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>0</v>
       </c>
       <c r="C85">
-        <v>0.99685841159775768</v>
+        <v>0.98605705802677535</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>0</v>
       </c>
       <c r="C86">
-        <v>0.89718183694701836</v>
+        <v>0.98609807493089852</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>0</v>
       </c>
       <c r="C87">
-        <v>1.1183148953086121E-4</v>
+        <v>0.94737280159459758</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>0.94982854832277741</v>
+        <v>0.96689980576581813</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>0.89738381511197729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>0</v>
       </c>
       <c r="C90">
-        <v>3.7811209709476316E-8</v>
+        <v>0.9775159076611486</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>0</v>
       </c>
       <c r="C91">
-        <v>0.93835643564554683</v>
+        <v>0.98819066172482428</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>0.81015618317054849</v>
+        <v>0.99995127341108103</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>2.875573167124819E-8</v>
+        <v>0.98130673047518246</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>0</v>
       </c>
       <c r="C94">
-        <v>0.94953646912873069</v>
+        <v>0.95799872291352972</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>0</v>
       </c>
       <c r="C95">
-        <v>1.169897932848659E-4</v>
+        <v>0.97032274241628313</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>0</v>
       </c>
       <c r="C96">
-        <v>0.91665655403333279</v>
+        <v>0.95749824719476562</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>0</v>
       </c>
       <c r="C97">
-        <v>0.83810491412052135</v>
+        <v>0.9831088296399495</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>0</v>
       </c>
       <c r="C98">
-        <v>0.99957603368852832</v>
+        <v>0.9360600974682316</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>0</v>
       </c>
       <c r="C99">
-        <v>0.95437735201330154</v>
+        <v>0.89662496613116716</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>0</v>
       </c>
       <c r="C100">
-        <v>0.7817428158317935</v>
+        <v>0.99787147650139096</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>0</v>
       </c>
       <c r="C101">
-        <v>0.7439876808730993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>0</v>
       </c>
       <c r="C102">
-        <v>0.94374582314330535</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>96</v>
-      </c>
-      <c r="B103" t="s">
-        <v>0</v>
-      </c>
-      <c r="C103">
-        <v>0.95726247500433315</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>97</v>
-      </c>
-      <c r="B104" t="s">
-        <v>0</v>
-      </c>
-      <c r="C104">
-        <v>0.79897414293913827</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>98</v>
-      </c>
-      <c r="B105" t="s">
-        <v>0</v>
-      </c>
-      <c r="C105">
-        <v>0.60112152998014989</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>99</v>
-      </c>
-      <c r="B106" t="s">
-        <v>0</v>
-      </c>
-      <c r="C106">
-        <v>0.73716568133384763</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>100</v>
-      </c>
-      <c r="B107" t="s">
-        <v>0</v>
-      </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>101</v>
-      </c>
-      <c r="B108" t="s">
-        <v>0</v>
-      </c>
-      <c r="C108">
-        <v>0.91583750840449307</v>
+        <v>0.99128770289133972</v>
       </c>
     </row>
   </sheetData>
